--- a/project1_timetable.xlsx
+++ b/project1_timetable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emikonaomasa/Documents/Flatiron/phase1/project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emikonaomasa/Desktop/test/git_practice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE27D01-751D-F349-9E29-3C1CC83460F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8DEC43-D146-E14A-8304-566AFA22A457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31260" yWindow="2680" windowWidth="34280" windowHeight="16020" xr2:uid="{C5277F0A-8D5F-ED41-AB69-B66226FF14B7}"/>
+    <workbookView xWindow="30560" yWindow="1900" windowWidth="33860" windowHeight="16020" xr2:uid="{C5277F0A-8D5F-ED41-AB69-B66226FF14B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="40">
   <si>
     <t>Weekend</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>Fri, Oct29</t>
-  </si>
-  <si>
-    <t>Git clone</t>
   </si>
   <si>
     <t>Target</t>
@@ -237,12 +234,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -251,6 +242,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,80 +562,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE64918-2BF6-734B-B73F-FEACA4F38F11}">
-  <dimension ref="A1:S59"/>
+  <dimension ref="A1:R59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.1640625" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="27.83203125" customWidth="1"/>
-    <col min="9" max="10" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" customWidth="1"/>
+    <col min="6" max="6" width="27.1640625" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" customWidth="1"/>
+    <col min="8" max="9" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="6" t="s">
+      <c r="F1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="4"/>
+      <c r="J1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="5"/>
+      <c r="L1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="6"/>
+      <c r="R1" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="7"/>
-      <c r="M1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="R1" s="8"/>
-      <c r="S1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
       <c r="E2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -646,369 +639,369 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="5" t="s">
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
       </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>2</v>
       </c>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>3</v>
       </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-    </row>
-    <row r="18" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>6</v>
       </c>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>7</v>
       </c>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>9</v>
       </c>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>14</v>
       </c>
       <c r="B27" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="12"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F27" s="9"/>
+      <c r="G27" s="10"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>2</v>
       </c>
-      <c r="G28" s="11"/>
-      <c r="H28" s="12"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F28" s="9"/>
+      <c r="G28" s="10"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>3</v>
       </c>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-    </row>
-    <row r="30" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+    </row>
+    <row r="30" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>5</v>
       </c>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="11"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>22</v>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
       </c>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="11"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A33" s="11"/>
       <c r="B33" t="s">
         <v>7</v>
       </c>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="11"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A34" s="3"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34" s="11"/>
       <c r="B34" t="s">
         <v>8</v>
       </c>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="11"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35" s="11"/>
       <c r="B35" t="s">
         <v>9</v>
       </c>
-      <c r="E35" t="s">
-        <v>39</v>
-      </c>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="8"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>38</v>
+      </c>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>10</v>
       </c>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="8"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>13</v>
       </c>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="8"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>15</v>
       </c>
       <c r="B39" t="s">
         <v>1</v>
       </c>
-      <c r="Q39" s="8"/>
-      <c r="R39" s="8"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>2</v>
       </c>
-      <c r="Q40" s="8"/>
-      <c r="R40" s="8"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>3</v>
       </c>
-      <c r="Q41" s="8"/>
-      <c r="R41" s="8"/>
-    </row>
-    <row r="42" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="10" t="s">
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+    </row>
+    <row r="42" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
-        <v>20</v>
+    <row r="43" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="4"/>
+    <row r="44" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="12"/>
       <c r="B44" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="4"/>
+    <row r="45" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="12"/>
       <c r="B45" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="4"/>
+    <row r="46" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="12"/>
       <c r="B46" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>16</v>
       </c>
@@ -1016,53 +1009,53 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="10" t="s">
+    <row r="54" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
-        <v>21</v>
+    <row r="55" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="4"/>
+    <row r="56" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="12"/>
       <c r="B56" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="4"/>
+    <row r="57" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="12"/>
       <c r="B57" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="4"/>
+    <row r="58" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="12"/>
       <c r="B58" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>9</v>
       </c>
-      <c r="E59" t="s">
-        <v>24</v>
+      <c r="D59" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
